--- a/careerpathmodel.xlsx
+++ b/careerpathmodel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stijndolphen/Documents/streamlit-career/streamlit-apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF35376-6983-404F-9786-7C3895F8E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCFEDAC-F64A-6941-9DE4-07369918FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35840" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulting Skills" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="358">
   <si>
     <t>Objective</t>
   </si>
@@ -5941,9 +5941,6 @@
     <t>Does level 5 mean you have to consider yourself as an expert to advise and help others at dataroots?</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>Data Strategist</t>
   </si>
   <si>
@@ -6036,6 +6033,18 @@
   <si>
     <t>AT5GAP</t>
   </si>
+  <si>
+    <t>Input Column</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
 </sst>
 </file>
 
@@ -6045,7 +6054,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6182,6 +6191,18 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6556,7 +6577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6801,6 +6822,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -38624,44 +38647,72 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="A1" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="82"/>
       <c r="B2" s="99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="101"/>
       <c r="E2" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="100"/>
       <c r="J2" s="99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K2" s="100"/>
       <c r="L2" s="100"/>
@@ -40516,6 +40567,7 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>A4</formula>
@@ -40532,8 +40584,8 @@
   </sheetPr>
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -40545,88 +40597,88 @@
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1">
       <c r="A1" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="D1" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="J1" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="K1" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="L1" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="N1" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="O1" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="P1" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="Q1" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="R1" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="S1" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="T1" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="U1" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="V1" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="W1" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="X1" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="Y1" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Z1" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="AA1" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="AA1" s="83" t="s">
+      <c r="AB1" s="83" t="s">
         <v>353</v>
-      </c>
-      <c r="AB1" s="83" t="s">
-        <v>354</v>
       </c>
       <c r="AC1" s="83"/>
       <c r="AD1" s="83"/>
